--- a/src/tests/data/results/comparison/IEEE 118 Bus.sav.xlsx
+++ b/src/tests/data/results/comparison/IEEE 118 Bus.sav.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Vabs" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="302">
   <si>
     <t xml:space="preserve">PSS/E</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Power Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPSSe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPowerFactory</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -932,7 +938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -970,6 +976,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1047,7 +1068,1186 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="es-ES" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>IEEE 118: Diferencias de GridCal y programas comerciales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.115038439902494"/>
+          <c:y val="0.144682742526947"/>
+          <c:w val="0.859616226014126"/>
+          <c:h val="0.715190576730748"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vabs!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dPSSe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Vabs!$E$2:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>2.34611259308792E-008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2655300120108E-009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.50037301763717E-009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.32188909607712E-008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.47013700604981E-008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.08690519812416E-008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.92393179165862E-008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.58914017897882E-009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.46871999007203E-008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.94586001440223E-008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08410691534999E-009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.24753249847376E-008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.55191699491297E-008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.28655729905824E-008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.70963970652838E-008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.05831296240922E-009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.69596739879796E-008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.61920998831278E-009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.11371730726617E-008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.87593296452349E-009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.33817900783396E-009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42931569807803E-008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.78187119398632E-008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.82894039912895E-008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.94314099547455E-008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.42116400261949E-008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.33857605397492E-009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.86880802131174E-009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.60645250435465E-008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.43216570006544E-008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.62551702601144E-009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.47594579283472E-008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.96764401730832E-009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.71434240031832E-008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.47871090319762E-008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.44781749922274E-008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.74614399606199E-008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.32663904972574E-007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.79455290627573E-008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.77271097590426E-009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5687399984875E-009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.71500657698243E-012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5826405014584E-008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.00941525027487E-007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.52587029467588E-008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.08585987266008E-009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.54203199893055E-008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.44242799715988E-008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.38898098262553E-008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.57934978825847E-009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.36269020512003E-008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.50870041091412E-010</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.36843539833009E-008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.67045609461769E-008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.98539390483532E-008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.05638269745734E-008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.59055789650253E-008</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.75001901648164E-009</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.96392030310722E-008</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.17032260549266E-008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.51244794255723E-009</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.73589098229866E-009</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.96221160220622E-008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.03861880394052E-008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.78922401339321E-008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.86854400233238E-008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.54142001571745E-009</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.02535000887383E-008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.33785998840597E-008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.27279919726453E-008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.31427889074709E-008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.75418100442937E-008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56624460068144E-008</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.93500704348537E-009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.28431819623742E-008</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.10429930042255E-008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.81258900006287E-008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.43736600586453E-008</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.14234982268636E-009</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.53517699558381E-008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.71410639915726E-008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1010793943278E-008</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.01326083476761E-010</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.03702071771761E-010</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.05503539635532E-008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.37007549644497E-008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.73526699068327E-008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1476994909998E-008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.03156398978399E-008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5437400225955E-009</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.61864560036074E-008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.94312089751847E-008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.22740399352861E-008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.20319750116249E-008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.18090719425368E-008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.07045560696173E-008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.83465699591324E-008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.63355200056526E-008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.65313498843045E-008</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.76330001711023E-008</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.83464090480956E-008</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.12174199928816E-008</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.17729899560015E-008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.31355303990244E-009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.06743019978595E-008</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9032700687992E-009</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.49440901057119E-009</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.3042970299112E-009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.31414680248909E-008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.56856297237351E-009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.44786950206921E-008</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.0463508987898E-008</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.10805929881752E-008</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.76823720110519E-008</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.9910377064013E-008</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.55710101374029E-008</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.1225913027223E-008</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.14702759512753E-008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vabs!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dPowerFactory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-ES" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Vabs!$F$2:$F$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>1.66033909954066E-008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.81255798837566E-009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32648589890039E-008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.59663740509453E-008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.37263499958118E-008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.69837998798795E-009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.72286401495847E-009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39653300035292E-008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.40981799965101E-008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.74239401082599E-008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.21924429943954E-008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6887700085091E-009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.11194200700527E-009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.62928209812563E-008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8705693044806E-008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.99792701774493E-009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.04265769351741E-008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.91448301235209E-009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.24797470135718E-008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.01882899286687E-009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.32106599495907E-008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.40817960017736E-008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6485178999659E-008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.61010530463912E-008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.74384400650507E-008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.40556499772515E-008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.11732400898524E-009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.46466205830365E-009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.78826100780827E-009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.76188739445749E-008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.73036401557903E-009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.61952912086849E-010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.32155397525713E-009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.72889689734157E-008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.49617279676662E-008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.91729000453833E-008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.470833008836E-009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.95247514045427E-007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.94810000248214E-008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.89097800143523E-008</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.44758809886392E-008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.48147669687404E-008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.39689140441635E-008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.02216524022758E-007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.60728429746627E-008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.74700989627763E-009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.47404698342046E-008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.19030899476047E-008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.38185098311305E-008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.71816498198518E-008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.75004730099226E-008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.56600540207808E-008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.74675869826879E-008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.66779929866578E-008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.19453010208426E-008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.80354292506269E-009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.92899760001575E-008</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.62116600144202E-008</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.43208349623336E-008</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.83540099469349E-009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.78544903703693E-009</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.57662380320767E-008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.67343320311986E-008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.20920939320024E-008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.75263983723551E-009</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.76650201530759E-008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.31088598759521E-008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.16334999411549E-008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.33785998840597E-008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.71908160431877E-008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.04712796398377E-009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.91246469771755E-008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.32208693887281E-009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.29806401580635E-009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.00589297686349E-009</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.86033211058145E-008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.19716399413517E-008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.91397701523977E-008</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.4776199959482E-009</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.81314200215144E-008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.53352320234157E-008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.05076308449293E-009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9376769339915E-009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.57634604947799E-009</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.43415209707953E-008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.06000479505042E-008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.42597798014066E-008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.74851650935892E-008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.75892991680382E-009</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.44129880252919E-008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.91610189936853E-008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.59715895643143E-009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.01515504283378E-009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.52448603424938E-009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.60631629611652E-008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.75152160553083E-008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.30531301112802E-008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.00425301805285E-008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.50629996943064E-009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.00157298408033E-008</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.04524494299363E-009</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.5881140542956E-009</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.49990996979011E-009</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.57647169762853E-008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6199686975481E-008</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.2587736014934E-008</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.19526650191426E-008</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.08489250308475E-008</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.42629510424541E-008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.98968197052363E-009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.91038279639955E-008</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.38617470227354E-008</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.89347590332056E-008</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.88199020204161E-010</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.00565800131847E-009</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.75984984760203E-009</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.03320507283922E-009</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.36538052770186E-010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="57961787"/>
+        <c:axId val="40834167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="57961787"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-ES" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="es-ES" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Nudo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-ES" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40834167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40834167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-ES" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="es-ES" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Error del módulo de la tensión</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-ES" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57961787"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.290170774306229"/>
+          <c:y val="0.14466810615031"/>
+          <c:w val="0.461478750242577"/>
+          <c:h val="0.125444034268998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-ES" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>332280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>124920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5450760" y="383400"/>
+        <a:ext cx="7420320" cy="5168520"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,14 +2255,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U38" activeCellId="0" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
@@ -1076,10 +2277,16 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.954999976538874</v>
@@ -1090,10 +2297,18 @@
       <c r="D2" s="0" t="n">
         <v>0.954999983396609</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">ABS(C2-B2)</f>
+        <v>2.34611259308792E-008</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">ABS(D2-C2)</f>
+        <v>1.66033909954066E-008</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.971393355176237</v>
@@ -1104,10 +2319,18 @@
       <c r="D3" s="0" t="n">
         <v>0.971393359723265</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">ABS(C3-B3)</f>
+        <v>5.2655300120108E-009</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">ABS(D3-C3)</f>
+        <v>9.81255798837566E-009</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.967693118719562</v>
@@ -1118,10 +2341,18 @@
       <c r="D4" s="0" t="n">
         <v>0.967693138484794</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">ABS(C4-B4)</f>
+        <v>6.50037301763717E-009</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">ABS(D4-C4)</f>
+        <v>1.32648589890039E-008</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.998000053218891</v>
@@ -1132,10 +2363,18 @@
       <c r="D5" s="0" t="n">
         <v>0.998000025966374</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">ABS(C5-B5)</f>
+        <v>5.32188909607712E-008</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">ABS(D5-C5)</f>
+        <v>2.59663740509453E-008</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.00198930197117</v>
@@ -1146,10 +2385,18 @@
       <c r="D6" s="0" t="n">
         <v>1.00198930099615</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">ABS(C6-B6)</f>
+        <v>2.47013700604981E-008</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">ABS(D6-C6)</f>
+        <v>2.37263499958118E-008</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.990000030869052</v>
@@ -1160,10 +2407,18 @@
       <c r="D7" s="0" t="n">
         <v>0.99000000969838</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">ABS(C7-B7)</f>
+        <v>3.08690519812416E-008</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">ABS(D7-C7)</f>
+        <v>9.69837998798795E-009</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.989328363322248</v>
@@ -1174,10 +2429,18 @@
       <c r="D8" s="0" t="n">
         <v>0.98932839028443</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">ABS(C8-B8)</f>
+        <v>1.92393179165862E-008</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">ABS(D8-C8)</f>
+        <v>7.72286401495847E-009</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.01500000458914</v>
@@ -1188,10 +2451,18 @@
       <c r="D9" s="0" t="n">
         <v>1.01499998603467</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">ABS(C9-B9)</f>
+        <v>4.58914017897882E-009</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">ABS(D9-C9)</f>
+        <v>1.39653300035292E-008</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1.04291821480801</v>
@@ -1202,10 +2473,18 @@
       <c r="D10" s="0" t="n">
         <v>1.04291818539703</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">ABS(C10-B10)</f>
+        <v>1.46871999007203E-008</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">ABS(D10-C10)</f>
+        <v>4.40981799965101E-008</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1.0499999205414</v>
@@ -1216,10 +2495,18 @@
       <c r="D11" s="0" t="n">
         <v>1.04999995257606</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">ABS(C11-B11)</f>
+        <v>7.94586001440223E-008</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">ABS(D11-C11)</f>
+        <v>4.74239401082599E-008</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.985083508402754</v>
@@ -1230,10 +2517,18 @@
       <c r="D12" s="0" t="n">
         <v>0.985083531679304</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">ABS(C12-B12)</f>
+        <v>1.08410691534999E-009</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">ABS(D12-C12)</f>
+        <v>2.21924429943954E-008</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.990000032475325</v>
@@ -1244,10 +2539,18 @@
       <c r="D13" s="0" t="n">
         <v>0.99000000968877</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">ABS(C13-B13)</f>
+        <v>3.24753249847376E-008</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">ABS(D13-C13)</f>
+        <v>9.6887700085091E-009</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.968291204720378</v>
@@ -1258,10 +2561,18 @@
       <c r="D14" s="0" t="n">
         <v>0.96829119731315</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">ABS(C14-B14)</f>
+        <v>1.55191699491297E-008</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">ABS(D14-C14)</f>
+        <v>8.11194200700527E-009</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.983586370789471</v>
@@ -1272,10 +2583,18 @@
       <c r="D15" s="0" t="n">
         <v>0.983586364216719</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">ABS(C15-B15)</f>
+        <v>2.28655729905824E-008</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">ABS(D15-C15)</f>
+        <v>1.62928209812563E-008</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.970000037096397</v>
@@ -1286,10 +2605,18 @@
       <c r="D16" s="0" t="n">
         <v>0.970000028705693</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">ABS(C16-B16)</f>
+        <v>3.70963970652838E-008</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">ABS(D16-C16)</f>
+        <v>2.8705693044806E-008</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.983835998691676</v>
@@ -1300,10 +2627,18 @@
       <c r="D17" s="0" t="n">
         <v>0.983836001752062</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">ABS(C17-B17)</f>
+        <v>6.05831296240922E-009</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">ABS(D17-C17)</f>
+        <v>2.99792701774493E-009</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99489814875091</v>
@@ -1314,10 +2649,18 @@
       <c r="D18" s="0" t="n">
         <v>0.994898175284007</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">ABS(C18-B18)</f>
+        <v>3.69596739879796E-008</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">ABS(D18-C18)</f>
+        <v>1.04265769351741E-008</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.97299999838079</v>
@@ -1328,10 +2671,18 @@
       <c r="D19" s="0" t="n">
         <v>0.972999990085517</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">ABS(C19-B19)</f>
+        <v>1.61920998831278E-009</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">ABS(D19-C19)</f>
+        <v>9.91448301235209E-009</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.962000011137173</v>
@@ -1342,10 +2693,18 @@
       <c r="D20" s="0" t="n">
         <v>0.962000012479747</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">ABS(C20-B20)</f>
+        <v>1.11371730726617E-008</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">ABS(D20-C20)</f>
+        <v>1.24797470135718E-008</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.956681492984733</v>
@@ -1356,10 +2715,18 @@
       <c r="D21" s="0" t="n">
         <v>0.956681496879495</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">ABS(C21-B21)</f>
+        <v>1.87593296452349E-009</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">ABS(D21-C21)</f>
+        <v>2.01882899286687E-009</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.957348441878246</v>
@@ -1370,10 +2737,18 @@
       <c r="D22" s="0" t="n">
         <v>0.957348428005765</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">ABS(C22-B22)</f>
+        <v>9.33817900783396E-009</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">ABS(D22-C22)</f>
+        <v>2.32106599495907E-008</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.968615847871519</v>
@@ -1384,10 +2759,18 @@
       <c r="D23" s="0" t="n">
         <v>0.96861585808288</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">ABS(C23-B23)</f>
+        <v>3.42931569807803E-008</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">ABS(D23-C23)</f>
+        <v>2.40817960017736E-008</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.999347628219957</v>
@@ -1398,10 +2781,18 @@
       <c r="D24" s="0" t="n">
         <v>0.99934764955349</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">ABS(C24-B24)</f>
+        <v>3.78187119398632E-008</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">ABS(D24-C24)</f>
+        <v>1.6485178999659E-008</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.991999981710596</v>
@@ -1412,10 +2803,18 @@
       <c r="D25" s="0" t="n">
         <v>0.991999983898947</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">ABS(C25-B25)</f>
+        <v>1.82894039912895E-008</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">ABS(D25-C25)</f>
+        <v>1.61010530463912E-008</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1.04999993056859</v>
@@ -1426,10 +2825,18 @@
       <c r="D26" s="0" t="n">
         <v>1.04999995256156</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">ABS(C26-B26)</f>
+        <v>6.94314099547455E-008</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">ABS(D26-C26)</f>
+        <v>4.74384400650507E-008</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1.01500002421164</v>
@@ -1440,10 +2847,18 @@
       <c r="D27" s="0" t="n">
         <v>1.01499998594435</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">ABS(C27-B27)</f>
+        <v>2.42116400261949E-008</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">ABS(D27-C27)</f>
+        <v>1.40556499772515E-008</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.968000004338576</v>
@@ -1454,10 +2869,18 @@
       <c r="D28" s="0" t="n">
         <v>0.967999994882676</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">ABS(C28-B28)</f>
+        <v>4.33857605397492E-009</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">ABS(D28-C28)</f>
+        <v>5.11732400898524E-009</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.961566517428342</v>
@@ -1468,10 +2891,18 @@
       <c r="D29" s="0" t="n">
         <v>0.961566510024196</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">ABS(C29-B29)</f>
+        <v>8.86880802131174E-009</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">ABS(D29-C29)</f>
+        <v>1.46466205830365E-009</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.963221389318073</v>
@@ -1482,10 +2913,18 @@
       <c r="D30" s="0" t="n">
         <v>0.963221382041809</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">ABS(C30-B30)</f>
+        <v>1.60645250435465E-008</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">ABS(D30-C30)</f>
+        <v>8.78826100780827E-009</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.984478535442332</v>
@@ -1496,10 +2935,18 @@
       <c r="D31" s="0" t="n">
         <v>0.984478532145115</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">ABS(C31-B31)</f>
+        <v>6.43216570006544E-008</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">ABS(D31-C31)</f>
+        <v>6.76188739445749E-008</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.967000002625517</v>
@@ -1510,10 +2957,18 @@
       <c r="D32" s="0" t="n">
         <v>0.967000007730364</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">ABS(C32-B32)</f>
+        <v>2.62551702601144E-009</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">ABS(D32-C32)</f>
+        <v>7.73036401557903E-009</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.962999975240542</v>
@@ -1524,10 +2979,18 @@
       <c r="D33" s="0" t="n">
         <v>0.962999999638047</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">ABS(C33-B33)</f>
+        <v>2.47594579283472E-008</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">ABS(D33-C33)</f>
+        <v>3.61952912086849E-010</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.970783639602575</v>
@@ -1538,10 +3001,18 @@
       <c r="D34" s="0" t="n">
         <v>0.970783651891773</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">ABS(C34-B34)</f>
+        <v>6.96764401730832E-009</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">ABS(D34-C34)</f>
+        <v>5.32155397525713E-009</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.984000037143424</v>
@@ -1552,10 +3023,18 @@
       <c r="D35" s="0" t="n">
         <v>0.984000027288969</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">ABS(C35-B35)</f>
+        <v>3.71434240031832E-008</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">ABS(D35-C35)</f>
+        <v>2.72889689734157E-008</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.980406295069224</v>
@@ -1566,10 +3045,18 @@
       <c r="D36" s="0" t="n">
         <v>0.980406285243843</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">ABS(C36-B36)</f>
+        <v>2.47871090319762E-008</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">ABS(D36-C36)</f>
+        <v>1.49617279676662E-008</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.980000014478175</v>
@@ -1580,10 +3067,18 @@
       <c r="D37" s="0" t="n">
         <v>0.9800000191729</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">ABS(C37-B37)</f>
+        <v>1.44781749922274E-008</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">ABS(D37-C37)</f>
+        <v>1.91729000453833E-008</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.990386620322758</v>
@@ -1594,10 +3089,18 @@
       <c r="D38" s="0" t="n">
         <v>0.990386632313365</v>
       </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">ABS(C38-B38)</f>
+        <v>1.74614399606199E-008</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">ABS(D38-C38)</f>
+        <v>5.470833008836E-009</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.958431898598421</v>
@@ -1608,10 +3111,18 @@
       <c r="D39" s="0" t="n">
         <v>0.958431836014812</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">ABS(C39-B39)</f>
+        <v>1.32663904972574E-007</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">ABS(D39-C39)</f>
+        <v>1.95247514045427E-007</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.968983949504403</v>
@@ -1622,10 +3133,18 @@
       <c r="D40" s="0" t="n">
         <v>0.968983971039874</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">ABS(C40-B40)</f>
+        <v>1.79455290627573E-008</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">ABS(D40-C40)</f>
+        <v>3.94810000248214E-008</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.970000005772711</v>
@@ -1636,10 +3155,18 @@
       <c r="D41" s="0" t="n">
         <v>0.97000002890978</v>
       </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">ABS(C41-B41)</f>
+        <v>5.77271097590426E-009</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">ABS(D41-C41)</f>
+        <v>2.89097800143523E-008</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.966872624939207</v>
@@ -1650,10 +3177,18 @@
       <c r="D42" s="0" t="n">
         <v>0.966872646846348</v>
       </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">ABS(C42-B42)</f>
+        <v>2.5687399984875E-009</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">ABS(D42-C42)</f>
+        <v>2.44758809886392E-008</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.984999999990285</v>
@@ -1664,10 +3199,18 @@
       <c r="D43" s="0" t="n">
         <v>0.985000014814767</v>
       </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">ABS(C43-B43)</f>
+        <v>9.71500657698243E-012</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">ABS(D43-C43)</f>
+        <v>1.48147669687404E-008</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.97678587120157</v>
@@ -1678,10 +3221,18 @@
       <c r="D44" s="0" t="n">
         <v>0.976785813059061</v>
       </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">ABS(C44-B44)</f>
+        <v>2.5826405014584E-008</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">ABS(D44-C44)</f>
+        <v>8.39689140441635E-008</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.983910156176241</v>
@@ -1692,10 +3243,18 @@
       <c r="D45" s="0" t="n">
         <v>0.983910154901242</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">ABS(C45-B45)</f>
+        <v>1.00941525027487E-007</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">ABS(D45-C45)</f>
+        <v>1.02216524022758E-007</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.985969014253668</v>
@@ -1706,10 +3265,18 @@
       <c r="D46" s="0" t="n">
         <v>0.985969003439528</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">ABS(C46-B46)</f>
+        <v>5.52587029467588E-008</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">ABS(D46-C46)</f>
+        <v>6.60728429746627E-008</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1.00499999591414</v>
@@ -1720,10 +3287,18 @@
       <c r="D47" s="0" t="n">
         <v>1.00499999525299</v>
       </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">ABS(C47-B47)</f>
+        <v>4.08585987266008E-009</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">ABS(D47-C47)</f>
+        <v>4.74700989627763E-009</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1.01647184528664</v>
@@ -1734,10 +3309,18 @@
       <c r="D48" s="0" t="n">
         <v>1.01647188596649</v>
       </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">ABS(C48-B48)</f>
+        <v>7.54203199893055E-008</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">ABS(D48-C48)</f>
+        <v>3.47404698342046E-008</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1.02064562314097</v>
@@ -1748,10 +3331,18 @@
       <c r="D49" s="0" t="n">
         <v>1.02064564566216</v>
       </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">ABS(C49-B49)</f>
+        <v>5.44242799715988E-008</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">ABS(D49-C49)</f>
+        <v>3.19030899476047E-008</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1.02499992611019</v>
@@ -1762,10 +3353,18 @@
       <c r="D50" s="0" t="n">
         <v>1.02499997618149</v>
       </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">ABS(C50-B50)</f>
+        <v>7.38898098262553E-008</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">ABS(D50-C50)</f>
+        <v>2.38185098311305E-008</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1.00071452673285</v>
@@ -1776,10 +3375,18 @@
       <c r="D51" s="0" t="n">
         <v>1.00071450413055</v>
       </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">ABS(C51-B51)</f>
+        <v>4.57934978825847E-009</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">ABS(D51-C51)</f>
+        <v>2.71816498198518E-008</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.966188691073688</v>
@@ -1790,10 +3397,18 @@
       <c r="D52" s="0" t="n">
         <v>0.966188677200117</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">ABS(C52-B52)</f>
+        <v>1.36269020512003E-008</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">ABS(D52-C52)</f>
+        <v>2.75004730099226E-008</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.956071475183106</v>
@@ -1804,10 +3419,18 @@
       <c r="D53" s="0" t="n">
         <v>0.956071440373922</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">ABS(C53-B53)</f>
+        <v>8.50870041091412E-010</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">ABS(D53-C53)</f>
+        <v>3.56600540207808E-008</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.945599032880455</v>
@@ -1818,10 +3441,18 @@
       <c r="D54" s="0" t="n">
         <v>0.945599019097222</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">ABS(C54-B54)</f>
+        <v>1.36843539833009E-008</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">ABS(D54-C54)</f>
+        <v>2.74675869826879E-008</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.954999963295439</v>
@@ -1832,10 +3463,18 @@
       <c r="D55" s="0" t="n">
         <v>0.954999983322007</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">ABS(C55-B55)</f>
+        <v>3.67045609461769E-008</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">ABS(D55-C55)</f>
+        <v>1.66779929866578E-008</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.952000019853939</v>
@@ -1846,10 +3485,18 @@
       <c r="D56" s="0" t="n">
         <v>0.952000021945301</v>
       </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">ABS(C56-B56)</f>
+        <v>1.98539390483532E-008</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">ABS(D56-C56)</f>
+        <v>2.19453010208426E-008</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.953999979436173</v>
@@ -1860,10 +3507,18 @@
       <c r="D57" s="0" t="n">
         <v>0.953999996196457</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">ABS(C57-B57)</f>
+        <v>2.05638269745734E-008</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">ABS(D57-C57)</f>
+        <v>3.80354292506269E-009</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.970201735057312</v>
@@ -1874,10 +3529,18 @@
       <c r="D58" s="0" t="n">
         <v>0.970201721672915</v>
       </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">ABS(C58-B58)</f>
+        <v>1.59055789650253E-008</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">ABS(D58-C58)</f>
+        <v>2.92899760001575E-008</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.958599313269925</v>
@@ -1888,10 +3551,18 @@
       <c r="D59" s="0" t="n">
         <v>0.958599302808284</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">ABS(C59-B59)</f>
+        <v>5.75001901648164E-009</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">ABS(D59-C59)</f>
+        <v>1.62116600144202E-008</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.985000039639203</v>
@@ -1902,10 +3573,18 @@
       <c r="D60" s="0" t="n">
         <v>0.985000014320835</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">ABS(C60-B60)</f>
+        <v>3.96392030310722E-008</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">ABS(D60-C60)</f>
+        <v>1.43208349623336E-008</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.993111044915821</v>
@@ -1916,10 +3595,18 @@
       <c r="D61" s="0" t="n">
         <v>0.993111041047996</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">ABS(C61-B61)</f>
+        <v>1.17032260549266E-008</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">ABS(D61-C61)</f>
+        <v>7.83540099469349E-009</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.994999994487552</v>
@@ -1930,10 +3617,18 @@
       <c r="D62" s="0" t="n">
         <v>0.995000004785449</v>
       </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">ABS(C62-B62)</f>
+        <v>5.51244794255723E-009</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <f aca="false">ABS(D62-C62)</f>
+        <v>4.78544903703693E-009</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.998000009735891</v>
@@ -1944,10 +3639,18 @@
       <c r="D63" s="0" t="n">
         <v>0.998000025766238</v>
       </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">ABS(C63-B63)</f>
+        <v>9.73589098229866E-009</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <f aca="false">ABS(D63-C63)</f>
+        <v>2.57662380320767E-008</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.968313383799919</v>
@@ -1958,10 +3661,18 @@
       <c r="D64" s="0" t="n">
         <v>0.968313307443471</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">ABS(C64-B64)</f>
+        <v>5.96221160220622E-008</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">ABS(D64-C64)</f>
+        <v>1.67343320311986E-008</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.983523956008589</v>
@@ -1972,10 +3683,18 @@
       <c r="D65" s="0" t="n">
         <v>0.983523853530307</v>
       </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">ABS(C65-B65)</f>
+        <v>8.03861880394052E-008</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <f aca="false">ABS(D65-C65)</f>
+        <v>2.20920939320024E-008</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1.00500001789224</v>
@@ -1986,10 +3705,18 @@
       <c r="D66" s="0" t="n">
         <v>1.00499999524736</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">ABS(C66-B66)</f>
+        <v>1.78922401339321E-008</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">ABS(D66-C66)</f>
+        <v>4.75263983723551E-009</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1.04999997131456</v>
@@ -2000,10 +3727,18 @@
       <c r="D67" s="0" t="n">
         <v>1.04999995233498</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">ABS(C67-B67)</f>
+        <v>2.86854400233238E-008</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <f aca="false">ABS(D67-C67)</f>
+        <v>4.76650201530759E-008</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1.01934654515248</v>
@@ -2014,10 +3749,18 @@
       <c r="D68" s="0" t="n">
         <v>1.0193465035022</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">ABS(C68-B68)</f>
+        <v>8.54142001571745E-009</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <f aca="false">ABS(D68-C68)</f>
+        <v>3.31088598759521E-008</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1.00322703243713</v>
@@ -2028,10 +3771,18 @@
       <c r="D69" s="0" t="n">
         <v>1.00322706105713</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">ABS(C69-B69)</f>
+        <v>4.02535000887383E-008</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <f aca="false">ABS(D69-C69)</f>
+        <v>1.16334999411549E-008</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1.0349999666214</v>
@@ -2042,10 +3793,18 @@
       <c r="D70" s="0" t="n">
         <v>1.0349999666214</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">ABS(C70-B70)</f>
+        <v>3.33785998840597E-008</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <f aca="false">ABS(D70-C70)</f>
+        <v>3.33785998840597E-008</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.984000052727992</v>
@@ -2056,10 +3815,18 @@
       <c r="D71" s="0" t="n">
         <v>0.984000027190816</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">ABS(C71-B71)</f>
+        <v>5.27279919726453E-008</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <f aca="false">ABS(D71-C71)</f>
+        <v>2.71908160431877E-008</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.986827812448616</v>
@@ -2070,10 +3837,18 @@
       <c r="D72" s="0" t="n">
         <v>0.986827797352955</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <f aca="false">ABS(C72-B72)</f>
+        <v>2.31427889074709E-008</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <f aca="false">ABS(D72-C72)</f>
+        <v>8.04712796398377E-009</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0.98000004754181</v>
@@ -2084,10 +3859,18 @@
       <c r="D73" s="0" t="n">
         <v>0.980000019124647</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">ABS(C73-B73)</f>
+        <v>4.75418100442937E-008</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <f aca="false">ABS(D73-C73)</f>
+        <v>1.91246469771755E-008</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0.991000015662446</v>
@@ -2098,10 +3881,18 @@
       <c r="D74" s="0" t="n">
         <v>0.990999996677913</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">ABS(C74-B74)</f>
+        <v>1.56624460068144E-008</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <f aca="false">ABS(D74-C74)</f>
+        <v>3.32208693887281E-009</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0.958000001935007</v>
@@ -2112,10 +3903,18 @@
       <c r="D75" s="0" t="n">
         <v>0.958000004298064</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">ABS(C75-B75)</f>
+        <v>1.93500704348537E-009</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <f aca="false">ABS(D75-C75)</f>
+        <v>4.29806401580635E-009</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0.967149939222165</v>
@@ -2126,10 +3925,18 @@
       <c r="D76" s="0" t="n">
         <v>0.96714991937309</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <f aca="false">ABS(C76-B76)</f>
+        <v>1.28431819623742E-008</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <f aca="false">ABS(D76-C76)</f>
+        <v>7.00589297686349E-009</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0.943000041042993</v>
@@ -2140,10 +3947,18 @@
       <c r="D77" s="0" t="n">
         <v>0.943000018603321</v>
       </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">ABS(C77-B77)</f>
+        <v>4.10429930042255E-008</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <f aca="false">ABS(D77-C77)</f>
+        <v>1.86033211058145E-008</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1.00600003812589</v>
@@ -2154,10 +3969,18 @@
       <c r="D78" s="0" t="n">
         <v>1.00600004197164</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <f aca="false">ABS(C78-B78)</f>
+        <v>3.81258900006287E-008</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <f aca="false">ABS(D78-C78)</f>
+        <v>4.19716399413517E-008</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1.00350922541832</v>
@@ -2168,10 +3991,18 @@
       <c r="D79" s="0" t="n">
         <v>1.00350917018443</v>
       </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">ABS(C79-B79)</f>
+        <v>8.43736600586453E-008</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <f aca="false">ABS(D79-C79)</f>
+        <v>2.91397701523977E-008</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1.00902901703406</v>
@@ -2182,10 +4013,18 @@
       <c r="D80" s="0" t="n">
         <v>1.00902901636933</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">ABS(C80-B80)</f>
+        <v>7.14234982268636E-009</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <f aca="false">ABS(D80-C80)</f>
+        <v>6.4776199959482E-009</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1.03999996464823</v>
@@ -2196,10 +4035,18 @@
       <c r="D81" s="0" t="n">
         <v>1.03999996186858</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">ABS(C81-B81)</f>
+        <v>3.53517699558381E-008</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <f aca="false">ABS(D81-C81)</f>
+        <v>3.81314200215144E-008</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0.996839231328983</v>
@@ -2210,10 +4057,18 @@
       <c r="D82" s="0" t="n">
         <v>0.996839263134815</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">ABS(C82-B82)</f>
+        <v>5.71410639915726E-008</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <f aca="false">ABS(D82-C82)</f>
+        <v>2.53352320234157E-008</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0.986381742096473</v>
@@ -2224,10 +4079,18 @@
       <c r="D83" s="0" t="n">
         <v>0.98638176015803</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">ABS(C83-B83)</f>
+        <v>1.1010793943278E-008</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <f aca="false">ABS(D83-C83)</f>
+        <v>7.05076308449293E-009</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0.98041850854983</v>
@@ -2238,10 +4101,18 @@
       <c r="D84" s="0" t="n">
         <v>0.980418503210827</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">ABS(C84-B84)</f>
+        <v>4.01326083476761E-010</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <f aca="false">ABS(D84-C84)</f>
+        <v>4.9376769339915E-009</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.977458221144778</v>
@@ -2252,10 +4123,18 @@
       <c r="D85" s="0" t="n">
         <v>0.977458211972134</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">ABS(C85-B85)</f>
+        <v>4.03702071771761E-010</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <f aca="false">ABS(D85-C85)</f>
+        <v>9.57634604947799E-009</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0.985000040550354</v>
@@ -2266,10 +4145,18 @@
       <c r="D86" s="0" t="n">
         <v>0.985000014341521</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <f aca="false">ABS(C86-B86)</f>
+        <v>4.05503539635532E-008</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <f aca="false">ABS(D86-C86)</f>
+        <v>1.43415209707953E-008</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.986690780085742</v>
@@ -2280,10 +4167,18 @@
       <c r="D87" s="0" t="n">
         <v>0.986690735784939</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">ABS(C87-B87)</f>
+        <v>3.37007549644497E-008</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <f aca="false">ABS(D87-C87)</f>
+        <v>1.06000479505042E-008</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1.01499997264733</v>
@@ -2294,10 +4189,18 @@
       <c r="D88" s="0" t="n">
         <v>1.01499998574022</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">ABS(C88-B88)</f>
+        <v>2.73526699068327E-008</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <f aca="false">ABS(D88-C88)</f>
+        <v>1.42597798014066E-008</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0.985791287218768</v>
@@ -2308,10 +4211,18 @@
       <c r="D89" s="0" t="n">
         <v>0.985791258256608</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">ABS(C89-B89)</f>
+        <v>1.1476994909998E-008</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <f aca="false">ABS(D89-C89)</f>
+        <v>1.74851650935892E-008</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1.00499998968436</v>
@@ -2322,10 +4233,18 @@
       <c r="D90" s="0" t="n">
         <v>1.00499999524107</v>
       </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">ABS(C90-B90)</f>
+        <v>1.03156398978399E-008</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <f aca="false">ABS(D90-C90)</f>
+        <v>4.75892991680382E-009</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0.98499999445626</v>
@@ -2336,10 +4255,18 @@
       <c r="D91" s="0" t="n">
         <v>0.985000014412988</v>
       </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">ABS(C91-B91)</f>
+        <v>5.5437400225955E-009</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <f aca="false">ABS(D91-C91)</f>
+        <v>1.44129880252919E-008</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0.980000026186456</v>
@@ -2350,10 +4277,18 @@
       <c r="D92" s="0" t="n">
         <v>0.980000019161019</v>
       </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">ABS(C92-B92)</f>
+        <v>2.61864560036074E-008</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <f aca="false">ABS(D92-C92)</f>
+        <v>1.91610189936853E-008</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0.989999980568791</v>
@@ -2364,10 +4299,18 @@
       <c r="D93" s="0" t="n">
         <v>0.990000009597159</v>
       </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">ABS(C93-B93)</f>
+        <v>1.94312089751847E-008</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">ABS(D93-C93)</f>
+        <v>9.59715895643143E-009</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0.986392772563328</v>
@@ -2378,10 +4321,18 @@
       <c r="D94" s="0" t="n">
         <v>0.986392816852523</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">ABS(C94-B94)</f>
+        <v>4.22740399352861E-008</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <f aca="false">ABS(D94-C94)</f>
+        <v>2.01515504283378E-009</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0.990435972217496</v>
@@ -2392,10 +4343,18 @@
       <c r="D95" s="0" t="n">
         <v>0.990436006724985</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">ABS(C95-B95)</f>
+        <v>4.20319750116249E-008</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <f aca="false">ABS(D95-C95)</f>
+        <v>7.52448603424938E-009</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0.980592294348216</v>
@@ -2406,10 +4365,18 @@
       <c r="D96" s="0" t="n">
         <v>0.980592280094125</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">ABS(C96-B96)</f>
+        <v>1.18090719425368E-008</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <f aca="false">ABS(D96-C96)</f>
+        <v>2.60631629611652E-008</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0.992075492363432</v>
@@ -2420,10 +4387,18 @@
       <c r="D97" s="0" t="n">
         <v>0.992075495552772</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">ABS(C97-B97)</f>
+        <v>2.07045560696173E-008</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <f aca="false">ABS(D97-C97)</f>
+        <v>1.75152160553083E-008</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1.01092494948728</v>
@@ -2434,10 +4409,18 @@
       <c r="D98" s="0" t="n">
         <v>1.01092496478072</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">ABS(C98-B98)</f>
+        <v>6.83465699591324E-008</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <f aca="false">ABS(D98-C98)</f>
+        <v>5.30531301112802E-008</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1.02323718752312</v>
@@ -2448,10 +4431,18 @@
       <c r="D99" s="0" t="n">
         <v>1.02323724381611</v>
       </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">ABS(C99-B99)</f>
+        <v>9.63355200056526E-008</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <f aca="false">ABS(D99-C99)</f>
+        <v>4.00425301805285E-008</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1.01000004653135</v>
@@ -2462,10 +4453,18 @@
       <c r="D100" s="0" t="n">
         <v>1.0099999904937</v>
       </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">ABS(C100-B100)</f>
+        <v>4.65313498843045E-008</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <f aca="false">ABS(D100-C100)</f>
+        <v>9.50629996943064E-009</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1.017000017633</v>
@@ -2476,10 +4475,18 @@
       <c r="D101" s="0" t="n">
         <v>1.01699995998427</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">ABS(C101-B101)</f>
+        <v>1.76330001711023E-008</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <f aca="false">ABS(D101-C101)</f>
+        <v>4.00157298408033E-008</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0.992157750391798</v>
@@ -2490,10 +4497,18 @@
       <c r="D102" s="0" t="n">
         <v>0.992157795783452</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">ABS(C102-B102)</f>
+        <v>3.83464090480956E-008</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <f aca="false">ABS(D102-C102)</f>
+        <v>7.04524494299363E-009</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0.989670566652633</v>
@@ -2504,10 +4519,18 @@
       <c r="D103" s="0" t="n">
         <v>0.989670562023327</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">ABS(C103-B103)</f>
+        <v>1.12174199928816E-008</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <f aca="false">ABS(D103-C103)</f>
+        <v>6.5881140542956E-009</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1.01000004177299</v>
@@ -2518,10 +4541,18 @@
       <c r="D104" s="0" t="n">
         <v>1.00999999050009</v>
       </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">ABS(C104-B104)</f>
+        <v>4.17729899560015E-008</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <f aca="false">ABS(D104-C104)</f>
+        <v>9.49990996979011E-009</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0.971000009313553</v>
@@ -2532,10 +4563,18 @@
       <c r="D105" s="0" t="n">
         <v>0.971000015764717</v>
       </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">ABS(C105-B105)</f>
+        <v>9.31355303990244E-009</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <f aca="false">ABS(D105-C105)</f>
+        <v>1.57647169762853E-008</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.964999989325698</v>
@@ -2546,10 +4585,18 @@
       <c r="D106" s="0" t="n">
         <v>0.964999973800313</v>
       </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">ABS(C106-B106)</f>
+        <v>1.06743019978595E-008</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <f aca="false">ABS(D106-C106)</f>
+        <v>2.6199686975481E-008</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.961146314837128</v>
@@ -2560,10 +4607,18 @@
       <c r="D107" s="0" t="n">
         <v>0.961146295152662</v>
       </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">ABS(C107-B107)</f>
+        <v>2.9032700687992E-009</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <f aca="false">ABS(D107-C107)</f>
+        <v>2.2587736014934E-008</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0.951999993505591</v>
@@ -2574,10 +4629,18 @@
       <c r="D108" s="0" t="n">
         <v>0.952000021952665</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">ABS(C108-B108)</f>
+        <v>6.49440901057119E-009</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <f aca="false">ABS(D108-C108)</f>
+        <v>2.19526650191426E-008</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0.966211749304624</v>
@@ -2588,10 +4651,18 @@
       <c r="D109" s="0" t="n">
         <v>0.966211732759996</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">ABS(C109-B109)</f>
+        <v>4.3042970299112E-009</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <f aca="false">ABS(D109-C109)</f>
+        <v>2.08489250308475E-008</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0.967025514363454</v>
@@ -2602,10 +4673,18 @@
       <c r="D110" s="0" t="n">
         <v>0.967025513241971</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">ABS(C110-B110)</f>
+        <v>1.31414680248909E-008</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <f aca="false">ABS(D110-C110)</f>
+        <v>1.42629510424541E-008</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0.973000004568563</v>
@@ -2616,10 +4695,18 @@
       <c r="D111" s="0" t="n">
         <v>0.972999990010318</v>
       </c>
+      <c r="E111" s="0" t="n">
+        <f aca="false">ABS(C111-B111)</f>
+        <v>4.56856297237351E-009</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <f aca="false">ABS(D111-C111)</f>
+        <v>9.98968197052363E-009</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0.980000014478695</v>
@@ -2630,10 +4717,18 @@
       <c r="D112" s="0" t="n">
         <v>0.980000019103828</v>
       </c>
+      <c r="E112" s="0" t="n">
+        <f aca="false">ABS(C112-B112)</f>
+        <v>1.44786950206921E-008</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <f aca="false">ABS(D112-C112)</f>
+        <v>1.91038279639955E-008</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0.975000040463509</v>
@@ -2644,10 +4739,18 @@
       <c r="D113" s="0" t="n">
         <v>0.975000023861747</v>
       </c>
+      <c r="E113" s="0" t="n">
+        <f aca="false">ABS(C113-B113)</f>
+        <v>4.0463508987898E-008</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <f aca="false">ABS(D113-C113)</f>
+        <v>2.38617470227354E-008</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0.992999968919407</v>
@@ -2658,10 +4761,18 @@
       <c r="D114" s="0" t="n">
         <v>0.992999971065241</v>
       </c>
+      <c r="E114" s="0" t="n">
+        <f aca="false">ABS(C114-B114)</f>
+        <v>3.10805929881752E-008</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <f aca="false">ABS(D114-C114)</f>
+        <v>2.89347590332056E-008</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0.960093061997961</v>
@@ -2672,10 +4783,18 @@
       <c r="D115" s="0" t="n">
         <v>0.960093079392134</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">ABS(C115-B115)</f>
+        <v>1.76823720110519E-008</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <f aca="false">ABS(D115-C115)</f>
+        <v>2.88199020204161E-010</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0.960022845783875</v>
@@ -2686,10 +4805,18 @@
       <c r="D116" s="0" t="n">
         <v>0.960022874688594</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">ABS(C116-B116)</f>
+        <v>2.9910377064013E-008</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <f aca="false">ABS(D116-C116)</f>
+        <v>1.00565800131847E-009</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1.00500003557101</v>
@@ -2700,10 +4827,18 @@
       <c r="D117" s="0" t="n">
         <v>1.00499999524015</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">ABS(C117-B117)</f>
+        <v>3.55710101374029E-008</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <f aca="false">ABS(D117-C117)</f>
+        <v>4.75984984760203E-009</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0.973824468037362</v>
@@ -2714,10 +4849,18 @@
       <c r="D118" s="0" t="n">
         <v>0.973824455844654</v>
       </c>
+      <c r="E118" s="0" t="n">
+        <f aca="false">ABS(C118-B118)</f>
+        <v>2.1225913027223E-008</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <f aca="false">ABS(D118-C118)</f>
+        <v>9.03320507283922E-009</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>0.949321776141105</v>
@@ -2727,6 +4870,14 @@
       </c>
       <c r="D119" s="0" t="n">
         <v>0.949321788347919</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <f aca="false">ABS(C119-B119)</f>
+        <v>1.14702759512753E-008</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <f aca="false">ABS(D119-C119)</f>
+        <v>7.36538052770186E-010</v>
       </c>
     </row>
   </sheetData>
@@ -2737,6 +4888,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2751,7 +4903,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2763,7 +4915,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-0.362082280299817</v>
@@ -2777,7 +4929,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-0.352717639496006</v>
@@ -2791,7 +4943,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-0.346639383044897</v>
@@ -2805,7 +4957,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.281639056930223</v>
@@ -2819,7 +4971,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-0.273850266346235</v>
@@ -2833,7 +4985,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.32157162555972</v>
@@ -2847,7 +4999,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-0.32937732766784</v>
@@ -2861,7 +5013,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-0.185981931519227</v>
@@ -2875,7 +5027,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-0.0593739160248303</v>
@@ -2889,7 +5041,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.0729379223479706</v>
@@ -2903,7 +5055,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.326657129799384</v>
@@ -2917,7 +5069,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-0.335710636526148</v>
@@ -2931,7 +5083,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-0.350999703389388</v>
@@ -2945,7 +5097,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-0.348599250256015</v>
@@ -2959,7 +5111,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>-0.354820579749546</v>
@@ -2973,7 +5125,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>-0.340953906783425</v>
@@ -2987,7 +5139,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-0.309348728517141</v>
@@ -3001,7 +5153,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-0.348861169384796</v>
@@ -3015,7 +5167,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-0.357797672080004</v>
@@ -3029,7 +5181,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-0.340664574473172</v>
@@ -3043,7 +5195,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-0.311611030293301</v>
@@ -3057,7 +5209,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-0.265495716561501</v>
@@ -3071,7 +5223,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>-0.177254454614702</v>
@@ -3085,7 +5237,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-0.176508495064837</v>
@@ -3099,7 +5251,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-0.058245964826928</v>
@@ -3113,7 +5265,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-0.0278986379029902</v>
@@ -3127,7 +5279,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-0.278382978596144</v>
@@ -3141,7 +5293,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>-0.308859008948001</v>
@@ -3155,7 +5307,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-0.326598502432477</v>
@@ -3169,7 +5321,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>-0.220517595498171</v>
@@ -3183,7 +5335,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-0.324708177929789</v>
@@ -3197,7 +5349,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-0.287869545783326</v>
@@ -3211,7 +5363,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-0.37024647650391</v>
@@ -3225,7 +5377,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-0.363461938065449</v>
@@ -3239,7 +5391,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-0.37162977766145</v>
@@ -3253,7 +5405,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-0.371575514546908</v>
@@ -3267,7 +5419,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-0.35593616114656</v>
@@ -3281,7 +5433,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-0.253542453231837</v>
@@ -3295,7 +5447,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-0.440131950365337</v>
@@ -3309,7 +5461,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-0.473533851115947</v>
@@ -3323,7 +5475,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-0.492321769543883</v>
@@ -3337,7 +5489,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-0.494564003826898</v>
@@ -3351,7 +5503,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-0.36034228034398</v>
@@ -3365,7 +5517,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-0.311105079158506</v>
@@ -3379,7 +5531,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-0.277018368045108</v>
@@ -3393,7 +5545,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-0.225840570261305</v>
@@ -3407,7 +5559,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-0.18413278595224</v>
@@ -3421,7 +5573,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-0.20141668000799</v>
@@ -3435,7 +5587,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-0.184109532032564</v>
@@ -3449,7 +5601,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>-0.223713579327103</v>
@@ -3463,7 +5615,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>-0.274773513486532</v>
@@ -3477,7 +5629,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>-0.292956172920156</v>
@@ -3491,7 +5643,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>-0.314182393158628</v>
@@ -3505,7 +5657,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>-0.301359901610966</v>
@@ -3519,7 +5671,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>-0.303165444913436</v>
@@ -3533,7 +5685,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>-0.302247787804915</v>
@@ -3547,7 +5699,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>-0.275514082920682</v>
@@ -3561,7 +5713,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>-0.291612463464023</v>
@@ -3575,7 +5727,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>-0.185202349315237</v>
@@ -3589,7 +5741,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>-0.110810113367032</v>
@@ -3603,7 +5755,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>-0.095318897258927</v>
@@ -3617,7 +5769,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>-0.102538028989764</v>
@@ -3631,7 +5783,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>-0.12154692423008</v>
@@ -3645,7 +5797,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>-0.0881839197284798</v>
@@ -3659,7 +5811,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>-0.0311741521150061</v>
@@ -3673,7 +5825,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>-0.01526465622153</v>
@@ -3687,7 +5839,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>-0.0688101759767215</v>
@@ -3701,7 +5853,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>-0.0354294152373188</v>
@@ -3715,7 +5867,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -3729,7 +5881,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>-0.137441465022576</v>
@@ -3743,7 +5895,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>-0.145725878497687</v>
@@ -3757,7 +5909,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>-0.17053408240263</v>
@@ -3771,7 +5923,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>-0.149420433607974</v>
@@ -3785,7 +5937,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>-0.154252798988252</v>
@@ -3799,7 +5951,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>-0.132246973292275</v>
@@ -3813,7 +5965,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>-0.155574117113517</v>
@@ -3827,7 +5979,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>-0.0741148187142907</v>
@@ -3841,7 +5993,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>-0.0761374020750023</v>
@@ -3855,7 +6007,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>-0.064611866430665</v>
@@ -3869,7 +6021,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>-0.00785325263460248</v>
@@ -3883,7 +6035,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>-0.0246436003933378</v>
@@ -3897,7 +6049,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>-0.0406242283027036</v>
@@ -3911,7 +6063,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>-0.000103639169126228</v>
@@ -3925,7 +6077,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.0758175564806021</v>
@@ -3939,7 +6091,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0.118157150502503</v>
@@ -3953,7 +6105,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.0942557649051707</v>
@@ -3967,7 +6119,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0.0987798772710687</v>
@@ -3981,7 +6133,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0.200337786363501</v>
@@ -3995,7 +6147,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0.290024812297801</v>
@@ -4009,7 +6161,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0.0768368739855564</v>
@@ -4023,7 +6175,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0.0452947731367705</v>
@@ -4037,7 +6189,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0.00690111473987682</v>
@@ -4051,7 +6203,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>-0.0271404010368281</v>
@@ -4065,7 +6217,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>-0.0486669007544058</v>
@@ -4079,7 +6231,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>-0.0568871385455497</v>
@@ -4093,7 +6245,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>-0.0487730162223377</v>
@@ -4107,7 +6259,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>-0.0344582963012745</v>
@@ -4121,7 +6273,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>-0.0478573155601685</v>
@@ -4135,7 +6287,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>-0.0661056369923473</v>
@@ -4149,7 +6301,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>-0.0586735074343074</v>
@@ -4163,7 +6315,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>-0.0461511665068053</v>
@@ -4177,7 +6329,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>-0.0126184569396308</v>
@@ -4191,7 +6343,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>-0.12396784780207</v>
@@ -4205,7 +6357,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>-0.16882255771796</v>
@@ -4219,7 +6371,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>-0.18809451057744</v>
@@ -4233,7 +6385,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>-0.192635167454736</v>
@@ -4247,7 +6399,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>-0.241517265107895</v>
@@ -4261,7 +6413,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>-0.20903986308398</v>
@@ -4275,7 +6427,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>-0.216939200286877</v>
@@ -4289,7 +6441,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>-0.231719679906096</v>
@@ -4303,7 +6455,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>-0.203007623180536</v>
@@ -4317,7 +6469,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>-0.285811253937669</v>
@@ -4331,7 +6483,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>-0.309085502341541</v>
@@ -4345,7 +6497,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>-0.29370495468068</v>
@@ -4359,7 +6511,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>-0.293849770115448</v>
@@ -4373,7 +6525,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>-0.0430234331617291</v>
@@ -4387,7 +6539,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>-0.362606172948449</v>
@@ -4401,7 +6553,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>-0.151157167257209</v>
@@ -4435,9 +6587,9 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1022" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -4456,7 +6608,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-12.3048191070557</v>
@@ -4470,7 +6622,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-38.6951789855957</v>
@@ -4484,7 +6636,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-32.4021530151367</v>
@@ -4498,7 +6650,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-68.2216644287109</v>
@@ -4512,7 +6664,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-9.72407245635986</v>
@@ -4526,7 +6678,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-103.487106323242</v>
@@ -4540,7 +6692,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>64.4871139526367</v>
@@ -4554,7 +6706,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>88.6863784790039</v>
@@ -4568,7 +6720,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>77.5164337158203</v>
@@ -4582,7 +6734,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>35.7513961791992</v>
@@ -4596,7 +6748,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16.6905689239502</v>
@@ -4610,7 +6762,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-440.635009765625</v>
@@ -4624,7 +6776,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>73.2794342041016</v>
@@ -4638,7 +6790,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-445.254669189453</v>
@@ -4652,7 +6804,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>34.4341506958008</v>
@@ -4666,7 +6818,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>35.4788475036621</v>
@@ -4680,7 +6832,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>18.7801132202148</v>
@@ -4694,7 +6846,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>7.50261545181274</v>
@@ -4708,7 +6860,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>20.152551651001</v>
@@ -4722,7 +6874,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.15600883960724</v>
@@ -4736,7 +6888,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>4.70023250579834</v>
@@ -4750,7 +6902,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-106.656219482422</v>
@@ -4764,7 +6916,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11.944616317749</v>
@@ -4778,7 +6930,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10.5342435836792</v>
@@ -4792,7 +6944,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-17.5159282684326</v>
@@ -4806,7 +6958,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>81.7445602416992</v>
@@ -4820,7 +6972,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>13.6094970703125</v>
@@ -4834,7 +6986,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.951676368713379</v>
@@ -4848,7 +7000,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>20.8382167816162</v>
@@ -4862,7 +7014,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>-11.9549512863159</v>
@@ -4876,7 +7028,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-0.399045795202255</v>
@@ -4890,7 +7042,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-30.007453918457</v>
@@ -4904,7 +7056,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-44.1951141357422</v>
@@ -4918,7 +7070,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-54.6405982971191</v>
@@ -4932,7 +7084,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2.41072225570679</v>
@@ -4946,7 +7098,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-160.167510986328</v>
@@ -4960,7 +7112,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>95.0201644897461</v>
@@ -4974,7 +7126,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-9.2532205581665</v>
@@ -4988,7 +7140,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-1.36434423923492</v>
@@ -5002,7 +7154,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>143.925247192383</v>
@@ -5016,7 +7168,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>225.819107055664</v>
@@ -5030,7 +7182,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>33.2508277893066</v>
@@ -5044,7 +7196,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>12.5219535827637</v>
@@ -5058,7 +7210,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>20.7209892272949</v>
@@ -5072,7 +7224,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>16.0250835418701</v>
@@ -5086,7 +7238,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-8.04866600036621</v>
@@ -5100,7 +7252,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>61.4034576416016</v>
@@ -5114,7 +7266,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-30.6334762573242</v>
@@ -5128,7 +7280,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5.23356962203979</v>
@@ -5142,7 +7294,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>9.37420177459717</v>
@@ -5156,7 +7308,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>-12.5162181854248</v>
@@ -5170,7 +7322,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>30.7569618225098</v>
@@ -5184,7 +7336,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>-89.5109252929687</v>
@@ -5198,7 +7350,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>-0.703102469444275</v>
@@ -5212,7 +7364,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.330561608076096</v>
@@ -5226,7 +7378,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>-33.3305625915527</v>
@@ -5240,7 +7392,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>76.1774215698242</v>
@@ -5254,7 +7406,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>64.6698684692383</v>
@@ -5268,7 +7420,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>-215.584136962891</v>
@@ -5282,7 +7434,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>47.2783164978027</v>
@@ -5296,7 +7448,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>35.0301628112793</v>
@@ -5310,7 +7462,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>7.87820672988892</v>
@@ -5324,7 +7476,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>-2.16124367713928</v>
@@ -5338,7 +7490,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>-90.4499740600586</v>
@@ -5352,7 +7504,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>-18.7115650177002</v>
@@ -5366,7 +7518,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>-34.9379768371582</v>
@@ -5380,7 +7532,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>-37.8850021362305</v>
@@ -5394,7 +7546,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>-50.3469581604004</v>
@@ -5408,7 +7560,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>-33.0839538574219</v>
@@ -5422,7 +7574,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>-14.3928108215332</v>
@@ -5436,7 +7588,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>-3.91201424598694</v>
@@ -5450,7 +7602,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>-63.5846061706543</v>
@@ -5464,7 +7616,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>-34.5237045288086</v>
@@ -5478,7 +7630,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>58.734489440918</v>
@@ -5492,7 +7644,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>72.9334564208984</v>
@@ -5506,7 +7658,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>43.5222702026367</v>
@@ -5520,7 +7672,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>-191.645126342773</v>
@@ -5534,7 +7686,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>-54.2120819091797</v>
@@ -5548,7 +7700,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>40.8127174377441</v>
@@ -5562,7 +7714,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>30.7297077178955</v>
@@ -5576,7 +7728,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>22.5372486114502</v>
@@ -5590,7 +7742,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>12.5157985687256</v>
@@ -5604,7 +7756,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>-10.5579977035522</v>
@@ -5618,7 +7770,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>3.11308121681213</v>
@@ -5632,7 +7784,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>10.4817609786987</v>
@@ -5646,7 +7798,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>-47.3987007141113</v>
@@ -5660,7 +7812,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>-8.6863431930542</v>
@@ -5674,7 +7826,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>-51.204402923584</v>
@@ -5688,7 +7840,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>-27.6815891265869</v>
@@ -5702,7 +7854,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>-10.3562755584717</v>
@@ -5716,7 +7868,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>-44.1807327270508</v>
@@ -5730,7 +7882,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>-48.614143371582</v>
@@ -5744,7 +7896,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>-56.7929039001465</v>
@@ -5758,7 +7910,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>-111.660446166992</v>
@@ -5772,7 +7924,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>-15.7417993545532</v>
@@ -5786,7 +7938,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>16.5460720062256</v>
@@ -5800,7 +7952,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>-44.5777435302734</v>
@@ -5814,7 +7966,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>-31.6859760284424</v>
@@ -5828,7 +7980,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>-163.732818603516</v>
@@ -5842,7 +7994,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>-190.734024047852</v>
@@ -5856,7 +8008,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>27.5748405456543</v>
@@ -5870,7 +8022,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>60.8067512512207</v>
@@ -5884,7 +8036,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>-50.2465858459473</v>
@@ -5898,7 +8050,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>184.12614440918</v>
@@ -5912,7 +8064,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>115.054870605469</v>
@@ -5926,7 +8078,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>116.806098937988</v>
@@ -5940,7 +8092,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>78.9071350097656</v>
@@ -5954,7 +8106,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>19.5306205749512</v>
@@ -5968,7 +8120,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>16.3662109375</v>
@@ -5982,7 +8134,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0.0606524683535099</v>
@@ -5996,7 +8148,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>13.4689521789551</v>
@@ -6010,7 +8162,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>6.0124683380127</v>
@@ -6024,7 +8176,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>-51.8315315246582</v>
@@ -6038,7 +8190,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>-30.8899250030518</v>
@@ -6052,7 +8204,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>43.0873794555664</v>
@@ -6066,7 +8218,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>-58.3130226135254</v>
@@ -6080,7 +8232,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>-9.68697547912598</v>
@@ -6094,7 +8246,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>20.6963577270508</v>
@@ -6108,7 +8260,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>-69.069709777832</v>
@@ -6122,7 +8274,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>-27.3085441589356</v>
@@ -6136,7 +8288,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>-50.3267822265625</v>
@@ -6150,7 +8302,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>-89.4708633422852</v>
@@ -6164,7 +8316,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>27.5850505828857</v>
@@ -6178,7 +8330,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>35.0214080810547</v>
@@ -6192,7 +8344,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>41.1400947570801</v>
@@ -6206,7 +8358,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>31.676248550415</v>
@@ -6220,7 +8372,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>-92.6699600219727</v>
@@ -6234,7 +8386,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>10.8147144317627</v>
@@ -6248,7 +8400,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>-43.3221664428711</v>
@@ -6262,7 +8414,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>-70.5856323242187</v>
@@ -6276,7 +8428,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>-55.9424819946289</v>
@@ -6290,7 +8442,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>17.1724815368652</v>
@@ -6304,7 +8456,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>-74.7895202636719</v>
@@ -6318,7 +8470,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>-96.4292297363281</v>
@@ -6332,7 +8484,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>-3.94694995880127</v>
@@ -6346,7 +8498,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>-124.002922058105</v>
@@ -6360,7 +8512,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>208.379241943359</v>
@@ -6374,7 +8526,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>173.670700073242</v>
@@ -6388,7 +8540,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>35.1355133056641</v>
@@ -6402,7 +8554,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>24.8076877593994</v>
@@ -6416,7 +8568,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>37.2314186096191</v>
@@ -6430,7 +8582,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>31.7345447540283</v>
@@ -6444,7 +8596,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>19.5900154113769</v>
@@ -6458,7 +8610,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>32.8229942321777</v>
@@ -6472,7 +8624,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>24.8555755615234</v>
@@ -6486,7 +8638,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>23.1126556396484</v>
@@ -6500,7 +8652,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>-0.418350517749786</v>
@@ -6514,7 +8666,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>3.1834032535553</v>
@@ -6528,7 +8680,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>-18.9915981292725</v>
@@ -6542,7 +8694,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>-19.5809822082519</v>
@@ -6556,7 +8708,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>6.75405931472778</v>
@@ -6570,7 +8722,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>-10.7791433334351</v>
@@ -6584,7 +8736,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>-5.34644651412964</v>
@@ -6598,7 +8750,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>121.753295898437</v>
@@ -6612,7 +8764,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>56.1846618652344</v>
@@ -6626,7 +8778,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>60.3611755371094</v>
@@ -6640,7 +8792,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>-27.4751014709473</v>
@@ -6654,7 +8806,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>32.4521102905273</v>
@@ -6668,7 +8820,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>43.3510856628418</v>
@@ -6682,7 +8834,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>60.5988311767578</v>
@@ -6696,7 +8848,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>48.5842628479004</v>
@@ -6710,7 +8862,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>8.86315059661865</v>
@@ -6724,7 +8876,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>26.7547130584717</v>
@@ -6738,7 +8890,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>23.96510887146</v>
@@ -6752,7 +8904,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>23.9841003417969</v>
@@ -6766,7 +8918,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>21.7745780944824</v>
@@ -6780,7 +8932,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>13.7086915969849</v>
@@ -6794,7 +8946,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>-35.7029457092285</v>
@@ -6808,7 +8960,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>69.4585952758789</v>
@@ -6822,7 +8974,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1.36047685146332</v>
@@ -6836,7 +8988,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>339.355590820313</v>
@@ -6850,7 +9002,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>233.279037475586</v>
@@ -6864,7 +9016,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>88.1808929443359</v>
@@ -6878,7 +9030,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>276.717895507813</v>
@@ -6892,7 +9044,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>163.732818603516</v>
@@ -6906,7 +9058,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>26.4500141143799</v>
@@ -6920,7 +9072,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>-48.5266189575195</v>
@@ -6934,7 +9086,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>-106.31616973877</v>
@@ -6948,7 +9100,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>-50.3134803771973</v>
@@ -6978,11 +9130,11 @@
   </sheetPr>
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
@@ -7002,7 +9154,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-13.0567970275879</v>
@@ -7016,7 +9168,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.0501766204834</v>
@@ -7030,7 +9182,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-20.0210723876953</v>
@@ -7044,7 +9196,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-14.4586505889893</v>
@@ -7058,7 +9210,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-12.4150552749634</v>
@@ -7072,7 +9224,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.7909278869629</v>
@@ -7086,7 +9238,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-0.276177197694778</v>
@@ -7100,7 +9252,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4.07813692092896</v>
@@ -7114,7 +9266,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.90972185134888</v>
@@ -7128,7 +9280,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-4.8188066482544</v>
@@ -7142,7 +9294,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-6.55576515197754</v>
@@ -7156,7 +9308,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-89.7335662841797</v>
@@ -7170,7 +9322,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29.9057540893555</v>
@@ -7184,7 +9336,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-24.4288597106934</v>
@@ -7198,7 +9350,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>-35.2028350830078</v>
@@ -7212,7 +9364,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>11.3064403533935</v>
@@ -7226,7 +9378,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.49431657791138</v>
@@ -7240,7 +9392,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4.37719345092773</v>
@@ -7254,7 +9406,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5.19725179672241</v>
@@ -7268,7 +9420,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-3.96452689170837</v>
@@ -7282,7 +9434,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>3.00000643730164</v>
@@ -7296,7 +9448,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-22.855447769165</v>
@@ -7310,7 +9462,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>15.5928583145142</v>
@@ -7324,7 +9476,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-5.24143934249878</v>
@@ -7338,7 +9490,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-3.61136126518249</v>
@@ -7352,7 +9504,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>24.0851936340332</v>
@@ -7366,7 +9518,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>11.7286949157715</v>
@@ -7380,7 +9532,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5.60545587539673</v>
@@ -7394,7 +9546,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>16.5153160095215</v>
@@ -7408,7 +9560,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5.68446350097656</v>
@@ -7422,7 +9574,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-11.3651905059815</v>
@@ -7436,7 +9588,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5.1833176612854</v>
@@ -7450,7 +9602,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-1.70899868011475</v>
@@ -7464,7 +9616,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-6.4952244758606</v>
@@ -7478,7 +9630,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>11.7768306732178</v>
@@ -7492,7 +9644,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-27.0783367156982</v>
@@ -7506,7 +9658,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4.62328290939331</v>
@@ -7520,7 +9672,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-2.85850596427917</v>
@@ -7534,7 +9686,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4.02088117599487</v>
@@ -7548,7 +9700,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30.0673370361328</v>
@@ -7562,7 +9714,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-10.2418241500854</v>
@@ -7576,7 +9728,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-0.662332475185394</v>
@@ -7590,7 +9742,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1.76574289798737</v>
@@ -7604,7 +9756,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5.06093120574951</v>
@@ -7618,7 +9770,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-6.66071462631226</v>
@@ -7632,7 +9784,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-8.74979591369629</v>
@@ -7646,7 +9798,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>22.7123908996582</v>
@@ -7660,7 +9812,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>12.6625909805298</v>
@@ -7674,7 +9826,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-18.1129264831543</v>
@@ -7688,7 +9840,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1.77713227272034</v>
@@ -7702,7 +9854,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>-11.3989753723144</v>
@@ -7716,7 +9868,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4.53403663635254</v>
@@ -7730,7 +9882,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>-42.6608390808105</v>
@@ -7744,7 +9896,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2.35253620147705</v>
@@ -7758,7 +9910,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.70357084274292</v>
@@ -7772,7 +9924,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>-12.7035703659058</v>
@@ -7786,7 +9938,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>-1.18881106376648</v>
@@ -7800,7 +9952,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>-8.91909408569336</v>
@@ -7814,7 +9966,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>-49.5551452636719</v>
@@ -7828,7 +9980,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>-15.8682823181152</v>
@@ -7842,7 +9994,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>-4.43585681915283</v>
@@ -7856,7 +10008,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>-12.4169502258301</v>
@@ -7870,7 +10022,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>-13.932635307312</v>
@@ -7884,7 +10036,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>18.5949287414551</v>
@@ -7898,7 +10050,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>-0.619949400424957</v>
@@ -7912,7 +10064,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>5.97893142700195</v>
@@ -7926,7 +10078,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>-3.31918263435364</v>
@@ -7940,7 +10092,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>-1.9900096654892</v>
@@ -7954,7 +10106,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>-0.0753208100795746</v>
@@ -7968,7 +10120,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>-5.96454906463623</v>
@@ -7982,7 +10134,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>-13.5028581619263</v>
@@ -7996,7 +10148,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>15.2766723632812</v>
@@ -8010,7 +10162,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>3.09169983863831</v>
@@ -8024,7 +10176,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>12.3331270217896</v>
@@ -8038,7 +10190,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>19.3008098602295</v>
@@ -8052,7 +10204,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>10.1343078613281</v>
@@ -8066,7 +10218,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>25.0039844512939</v>
@@ -8080,7 +10232,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>14.5016651153565</v>
@@ -8094,7 +10246,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>7.65975427627563</v>
@@ -8108,7 +10260,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5.62343072891235</v>
@@ -8122,7 +10274,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1.55358707904816</v>
@@ -8136,7 +10288,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1.29344964027405</v>
@@ -8150,7 +10302,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>-6.33556938171387</v>
@@ -8164,7 +10316,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2.38908743858337</v>
@@ -8178,7 +10330,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>6.65152311325073</v>
@@ -8192,7 +10344,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>-2.05950951576233</v>
@@ -8206,7 +10358,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>-9.9688138961792</v>
@@ -8220,7 +10372,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>-2.85204076766968</v>
@@ -8234,7 +10386,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>-6.93038177490234</v>
@@ -8248,7 +10400,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>-1.91265022754669</v>
@@ -8262,7 +10414,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2.72091960906982</v>
@@ -8276,7 +10428,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>5.16004133224487</v>
@@ -8290,7 +10442,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>6.60739469528198</v>
@@ -8304,7 +10456,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>8.10014724731445</v>
@@ -8318,7 +10470,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>-5.86679553985596</v>
@@ -8332,7 +10484,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>-11.9812335968018</v>
@@ -8346,7 +10498,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>-14.998291015625</v>
@@ -8360,7 +10512,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>-12.2705154418945</v>
@@ -8374,7 +10526,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>-67.0384368896484</v>
@@ -8388,7 +10540,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>-66.0136489868164</v>
@@ -8402,7 +10554,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>-23.404806137085</v>
@@ -8416,7 +10568,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>18.3238925933838</v>
@@ -8430,7 +10582,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>-4.29531621932983</v>
@@ -8444,7 +10596,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>-66.9102096557617</v>
@@ -8458,7 +10610,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>15.412446975708</v>
@@ -8472,7 +10624,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>19.3083667755127</v>
@@ -8486,7 +10638,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2.84727096557617</v>
@@ -8500,7 +10652,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>-13.0217018127441</v>
@@ -8514,7 +10666,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>12.8474454879761</v>
@@ -8528,7 +10680,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>10.0070581436157</v>
@@ -8542,7 +10694,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>-1.59258675575256</v>
@@ -8556,7 +10708,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>-10.7745685577393</v>
@@ -8570,7 +10722,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>-5.80948781967163</v>
@@ -8584,7 +10736,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>-11.0152711868286</v>
@@ -8598,7 +10750,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>22.6392059326172</v>
@@ -8612,7 +10764,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>-22.1580505371094</v>
@@ -8626,7 +10778,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>-8.62503528594971</v>
@@ -8640,7 +10792,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>13.3095474243164</v>
@@ -8654,7 +10806,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>-12.2027292251587</v>
@@ -8668,7 +10820,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>29.1937103271484</v>
@@ -8682,7 +10834,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>-11.4907245635986</v>
@@ -8696,7 +10848,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>-23.1156635284424</v>
@@ -8710,7 +10862,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>19.7926616668701</v>
@@ -8724,7 +10876,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>24.5376491546631</v>
@@ -8738,7 +10890,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>6.31746482849121</v>
@@ -8752,7 +10904,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>6.07666444778442</v>
@@ -8766,7 +10918,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>44.6878204345703</v>
@@ -8780,7 +10932,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>-16.4873695373535</v>
@@ -8794,7 +10946,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>23.5624580383301</v>
@@ -8808,7 +10960,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>20.3580017089844</v>
@@ -8822,7 +10974,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>15.6128215789795</v>
@@ -8836,7 +10988,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>-7.35366487503052</v>
@@ -8850,7 +11002,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>15.7744035720825</v>
@@ -8864,7 +11016,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>8.08476829528809</v>
@@ -8878,7 +11030,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>-15.0909585952759</v>
@@ -8892,7 +11044,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2.26605486869812</v>
@@ -8906,7 +11058,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>-12.4581995010376</v>
@@ -8920,7 +11072,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>-10.6714916229248</v>
@@ -8934,7 +11086,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>-5.24779939651489</v>
@@ -8948,7 +11100,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>-16.2592144012451</v>
@@ -8962,7 +11114,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>-7.51738023757935</v>
@@ -8976,7 +11128,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>-10.9658527374268</v>
@@ -8990,7 +11142,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>-14.9436655044556</v>
@@ -9004,7 +11156,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>-7.02230024337769</v>
@@ -9018,7 +11170,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>-13.6238651275635</v>
@@ -9032,7 +11184,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>14.9659585952759</v>
@@ -9046,7 +11198,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>-2.86719942092895</v>
@@ -9060,7 +11212,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>-49.2144660949707</v>
@@ -9074,7 +11226,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>-15.2987155914307</v>
@@ -9088,7 +11240,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>-18.3673439025879</v>
@@ -9102,7 +11254,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>-0.390373349189758</v>
@@ -9116,7 +11268,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>-7.37643814086914</v>
@@ -9130,7 +11282,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>19.5593795776367</v>
@@ -9144,7 +11296,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>-22.1485500335693</v>
@@ -9158,7 +11310,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>10.6469669342041</v>
@@ -9172,7 +11324,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>9.47597312927246</v>
@@ -9186,7 +11338,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>7.28384256362915</v>
@@ -9200,7 +11352,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>13.8670845031738</v>
@@ -9214,7 +11366,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>12.8485307693481</v>
@@ -9228,7 +11380,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>8.34891605377197</v>
@@ -9242,7 +11394,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2.63244557380676</v>
@@ -9256,7 +11408,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>3.87987565994263</v>
@@ -9270,7 +11422,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>-2.37496042251587</v>
@@ -9284,7 +11436,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>-11.1284685134888</v>
@@ -9298,7 +11450,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>-3.72535920143127</v>
@@ -9312,7 +11464,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>-10.922324180603</v>
@@ -9326,7 +11478,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>-13.39293384552</v>
@@ -9340,7 +11492,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>0.956097364425659</v>
@@ -9354,7 +11506,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>-30.6142024993896</v>
@@ -9368,7 +11520,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0.220115557312965</v>
@@ -9382,7 +11534,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>-91.9130172729492</v>
@@ -9396,7 +11548,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>-68.096321105957</v>
@@ -9410,7 +11562,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>-18.704626083374</v>
@@ -9424,7 +11576,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>-77.3961334228516</v>
@@ -9438,7 +11590,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>-55.1623764038086</v>
@@ -9452,7 +11604,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>-12.9054975509644</v>
@@ -9466,7 +11618,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>72.6239395141602</v>
@@ -9480,7 +11632,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>111.993980407715</v>
@@ -9494,7 +11646,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>-73.0472640991211</v>
